--- a/bills/order_4.xlsx
+++ b/bills/order_4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B183B176-3C3C-4293-9098-A5379DB59522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38DD6B7F-3D38-4EB7-AD36-24264C84284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="14976" windowHeight="7656" xr2:uid="{AAD60B6F-8E1D-42B8-91B0-BE3F22EA8A6F}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="14976" windowHeight="7656" xr2:uid="{2F200A76-6C2D-4E9D-9B2B-F81F8F49C0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -44,10 +44,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Ca Rot</t>
-  </si>
-  <si>
-    <t>Sup Lo</t>
+    <t>ga</t>
   </si>
 </sst>
 </file>
@@ -398,17 +395,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A3E73-D020-472C-8D5C-8DC756CB3E87}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610010BD-DE37-4593-A0BF-105DE036CB35}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -430,35 +425,21 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>13000</v>
+        <v>600000</v>
       </c>
       <c r="D2">
-        <v>13000</v>
+        <v>1800000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>30000</v>
-      </c>
-      <c r="D3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>103000</v>
+      <c r="C4">
+        <v>1800000</v>
       </c>
     </row>
   </sheetData>
